--- a/FOF/data/板块.xlsx
+++ b/FOF/data/板块.xlsx
@@ -25,70 +25,70 @@
     <t>代码</t>
   </si>
   <si>
+    <t>000016.SH</t>
+  </si>
+  <si>
     <t>000903.SH</t>
   </si>
   <si>
-    <t>000016.SH</t>
-  </si>
-  <si>
     <t>000300.SH</t>
   </si>
   <si>
     <t>000906.SH</t>
   </si>
   <si>
+    <t>000001.SH</t>
+  </si>
+  <si>
+    <t>881001.WI</t>
+  </si>
+  <si>
     <t>399101.SZ</t>
   </si>
   <si>
-    <t>000001.SH</t>
-  </si>
-  <si>
-    <t>881001.WI</t>
-  </si>
-  <si>
     <t>399106.SZ</t>
   </si>
   <si>
     <t>000905.SH</t>
   </si>
   <si>
+    <t>000852.SH</t>
+  </si>
+  <si>
     <t>399102.SZ</t>
   </si>
   <si>
-    <t>000852.SH</t>
+    <t>上证50</t>
   </si>
   <si>
     <t>中证100</t>
   </si>
   <si>
-    <t>上证50</t>
-  </si>
-  <si>
     <t>沪深300</t>
   </si>
   <si>
     <t>中证800</t>
   </si>
   <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
     <t>中小板综</t>
   </si>
   <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
     <t>深证综指</t>
   </si>
   <si>
     <t>中证500</t>
   </si>
   <si>
+    <t>中证1000</t>
+  </si>
+  <si>
     <t>创业板综</t>
-  </si>
-  <si>
-    <t>中证1000</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.03190185533319823</v>
+        <v>0.02671066837827141</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,7 +482,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>0.02444083194602809</v>
+        <v>0.01578976453899217</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>0.0235502852559959</v>
+        <v>0.002174074187205166</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,7 +504,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0.01551449489453605</v>
+        <v>-0.009787858111652059</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,7 +515,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>0.00921141888558652</v>
+        <v>-0.01449762285840728</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>0.008869962586106839</v>
+        <v>-0.02422686950699515</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,7 +537,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>0.006640229942208142</v>
+        <v>-0.03964528350620833</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.005625369501183419</v>
+        <v>-0.04161820933479088</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,7 +559,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-0.004821059032565134</v>
+        <v>-0.04205176931141719</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-0.005611761434885953</v>
+        <v>-0.05180136926202195</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-0.01162347455771029</v>
+        <v>-0.05391511816124117</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/板块.xlsx
+++ b/FOF/data/板块.xlsx
@@ -25,70 +25,70 @@
     <t>代码</t>
   </si>
   <si>
+    <t>399101.SZ</t>
+  </si>
+  <si>
+    <t>000852.SH</t>
+  </si>
+  <si>
+    <t>000905.SH</t>
+  </si>
+  <si>
+    <t>399106.SZ</t>
+  </si>
+  <si>
+    <t>399102.SZ</t>
+  </si>
+  <si>
+    <t>881001.WI</t>
+  </si>
+  <si>
+    <t>000906.SH</t>
+  </si>
+  <si>
+    <t>000300.SH</t>
+  </si>
+  <si>
+    <t>000001.SH</t>
+  </si>
+  <si>
+    <t>000903.SH</t>
+  </si>
+  <si>
     <t>000016.SH</t>
   </si>
   <si>
-    <t>000903.SH</t>
-  </si>
-  <si>
-    <t>000300.SH</t>
-  </si>
-  <si>
-    <t>000906.SH</t>
-  </si>
-  <si>
-    <t>000001.SH</t>
-  </si>
-  <si>
-    <t>881001.WI</t>
-  </si>
-  <si>
-    <t>399101.SZ</t>
-  </si>
-  <si>
-    <t>399106.SZ</t>
-  </si>
-  <si>
-    <t>000905.SH</t>
-  </si>
-  <si>
-    <t>000852.SH</t>
-  </si>
-  <si>
-    <t>399102.SZ</t>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>中证100</t>
   </si>
   <si>
     <t>上证50</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中证1000</t>
-  </si>
-  <si>
-    <t>创业板综</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.02671066837827141</v>
+        <v>0.007417978059064412</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,7 +482,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>0.01578976453899217</v>
+        <v>0.006322025460127945</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>0.002174074187205166</v>
+        <v>0.005258221263403806</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,7 +504,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-0.009787858111652059</v>
+        <v>0.005125220128479491</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,7 +515,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-0.01449762285840728</v>
+        <v>0.003120328359432545</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-0.02422686950699515</v>
+        <v>-0.0002936657692816924</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,7 +537,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-0.03964528350620833</v>
+        <v>-0.002770558409555646</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-0.04161820933479088</v>
+        <v>-0.005626097073192393</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,7 +559,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-0.04205176931141719</v>
+        <v>-0.007250867813554884</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-0.05180136926202195</v>
+        <v>-0.007398456703235579</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-0.05391511816124117</v>
+        <v>-0.01576569934597993</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/板块.xlsx
+++ b/FOF/data/板块.xlsx
@@ -25,70 +25,70 @@
     <t>代码</t>
   </si>
   <si>
+    <t>000903.SH</t>
+  </si>
+  <si>
+    <t>000016.SH</t>
+  </si>
+  <si>
+    <t>000300.SH</t>
+  </si>
+  <si>
+    <t>000906.SH</t>
+  </si>
+  <si>
+    <t>000001.SH</t>
+  </si>
+  <si>
+    <t>881001.WI</t>
+  </si>
+  <si>
+    <t>000905.SH</t>
+  </si>
+  <si>
+    <t>399106.SZ</t>
+  </si>
+  <si>
     <t>399101.SZ</t>
   </si>
   <si>
+    <t>399102.SZ</t>
+  </si>
+  <si>
     <t>000852.SH</t>
   </si>
   <si>
-    <t>000905.SH</t>
-  </si>
-  <si>
-    <t>399106.SZ</t>
-  </si>
-  <si>
-    <t>399102.SZ</t>
-  </si>
-  <si>
-    <t>881001.WI</t>
-  </si>
-  <si>
-    <t>000906.SH</t>
-  </si>
-  <si>
-    <t>000300.SH</t>
-  </si>
-  <si>
-    <t>000001.SH</t>
-  </si>
-  <si>
-    <t>000903.SH</t>
-  </si>
-  <si>
-    <t>000016.SH</t>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>深证综指</t>
   </si>
   <si>
     <t>中小板综</t>
   </si>
   <si>
+    <t>创业板综</t>
+  </si>
+  <si>
     <t>中证1000</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>创业板综</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>上证50</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.007417978059064412</v>
+        <v>0.02435571128247349</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,7 +482,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>0.006322025460127945</v>
+        <v>0.02149018430329619</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>0.005258221263403806</v>
+        <v>0.01852430826557461</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,7 +504,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0.005125220128479491</v>
+        <v>0.01392741911753492</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,7 +515,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>0.003120328359432545</v>
+        <v>0.009468647228556115</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-0.0002936657692816924</v>
+        <v>0.005607884488262105</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,7 +537,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-0.002770558409555646</v>
+        <v>0.001142426758896642</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-0.005626097073192393</v>
+        <v>0.000187881002106316</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,7 +559,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-0.007250867813554884</v>
+        <v>-0.003203415227677531</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-0.007398456703235579</v>
+        <v>-0.01006863167720184</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-0.01576569934597993</v>
+        <v>-0.01198283319840654</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/板块.xlsx
+++ b/FOF/data/板块.xlsx
@@ -43,21 +43,21 @@
     <t>881001.WI</t>
   </si>
   <si>
+    <t>399106.SZ</t>
+  </si>
+  <si>
+    <t>399101.SZ</t>
+  </si>
+  <si>
     <t>000905.SH</t>
   </si>
   <si>
-    <t>399106.SZ</t>
-  </si>
-  <si>
-    <t>399101.SZ</t>
+    <t>000852.SH</t>
   </si>
   <si>
     <t>399102.SZ</t>
   </si>
   <si>
-    <t>000852.SH</t>
-  </si>
-  <si>
     <t>中证100</t>
   </si>
   <si>
@@ -76,19 +76,19 @@
     <t>万得全A</t>
   </si>
   <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
     <t>中证500</t>
   </si>
   <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中小板综</t>
+    <t>中证1000</t>
   </si>
   <si>
     <t>创业板综</t>
-  </si>
-  <si>
-    <t>中证1000</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.02435571128247349</v>
+        <v>0.03233308712496452</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,7 +482,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>0.02149018430329619</v>
+        <v>0.02940976671384843</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>0.01852430826557461</v>
+        <v>0.02083974378257425</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,7 +504,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0.01392741911753492</v>
+        <v>0.01464527943787641</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,7 +515,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>0.009468647228556115</v>
+        <v>0.01096501773523939</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>0.005607884488262105</v>
+        <v>0.007762866081583386</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,7 +537,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>0.001142426758896642</v>
+        <v>0.003675671032437711</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.000187881002106316</v>
+        <v>0.001640604700311021</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,7 +559,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-0.003203415227677531</v>
+        <v>-0.002786238605464786</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-0.01006863167720184</v>
+        <v>-0.006833050389571715</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-0.01198283319840654</v>
+        <v>-0.008419647484657844</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/板块.xlsx
+++ b/FOF/data/板块.xlsx
@@ -25,70 +25,70 @@
     <t>代码</t>
   </si>
   <si>
+    <t>399102.SZ</t>
+  </si>
+  <si>
+    <t>000852.SH</t>
+  </si>
+  <si>
+    <t>399101.SZ</t>
+  </si>
+  <si>
+    <t>000905.SH</t>
+  </si>
+  <si>
+    <t>399106.SZ</t>
+  </si>
+  <si>
+    <t>881001.WI</t>
+  </si>
+  <si>
+    <t>000906.SH</t>
+  </si>
+  <si>
+    <t>000001.SH</t>
+  </si>
+  <si>
+    <t>000300.SH</t>
+  </si>
+  <si>
     <t>000903.SH</t>
   </si>
   <si>
     <t>000016.SH</t>
   </si>
   <si>
-    <t>000300.SH</t>
-  </si>
-  <si>
-    <t>000906.SH</t>
-  </si>
-  <si>
-    <t>000001.SH</t>
-  </si>
-  <si>
-    <t>881001.WI</t>
-  </si>
-  <si>
-    <t>399106.SZ</t>
-  </si>
-  <si>
-    <t>399101.SZ</t>
-  </si>
-  <si>
-    <t>000905.SH</t>
-  </si>
-  <si>
-    <t>000852.SH</t>
-  </si>
-  <si>
-    <t>399102.SZ</t>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>沪深300</t>
   </si>
   <si>
     <t>中证100</t>
   </si>
   <si>
     <t>上证50</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中证1000</t>
-  </si>
-  <si>
-    <t>创业板综</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.03233308712496452</v>
+        <v>0.05926438116125166</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,7 +482,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>0.02940976671384843</v>
+        <v>0.04185648746502557</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>0.02083974378257425</v>
+        <v>0.02733128199747181</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,7 +504,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0.01464527943787641</v>
+        <v>0.02690193332916802</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,7 +515,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>0.01096501773523939</v>
+        <v>0.02650232473666714</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>0.007762866081583386</v>
+        <v>0.008696257209211744</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,7 +537,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>0.003675671032437711</v>
+        <v>-0.003355132185051679</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.001640604700311021</v>
+        <v>-0.01048815665412728</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,7 +559,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-0.002786238605464786</v>
+        <v>-0.01341849842679688</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-0.006833050389571715</v>
+        <v>-0.0250942371344296</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-0.008419647484657844</v>
+        <v>-0.03144478286849151</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/板块.xlsx
+++ b/FOF/data/板块.xlsx
@@ -25,70 +25,70 @@
     <t>代码</t>
   </si>
   <si>
+    <t>000852.SH</t>
+  </si>
+  <si>
+    <t>399101.SZ</t>
+  </si>
+  <si>
+    <t>000905.SH</t>
+  </si>
+  <si>
+    <t>881001.WI</t>
+  </si>
+  <si>
+    <t>000001.SH</t>
+  </si>
+  <si>
+    <t>399106.SZ</t>
+  </si>
+  <si>
+    <t>000906.SH</t>
+  </si>
+  <si>
+    <t>000300.SH</t>
+  </si>
+  <si>
+    <t>000016.SH</t>
+  </si>
+  <si>
+    <t>000903.SH</t>
+  </si>
+  <si>
     <t>399102.SZ</t>
   </si>
   <si>
-    <t>000852.SH</t>
-  </si>
-  <si>
-    <t>399101.SZ</t>
-  </si>
-  <si>
-    <t>000905.SH</t>
-  </si>
-  <si>
-    <t>399106.SZ</t>
-  </si>
-  <si>
-    <t>881001.WI</t>
-  </si>
-  <si>
-    <t>000906.SH</t>
-  </si>
-  <si>
-    <t>000001.SH</t>
-  </si>
-  <si>
-    <t>000300.SH</t>
-  </si>
-  <si>
-    <t>000903.SH</t>
-  </si>
-  <si>
-    <t>000016.SH</t>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>中证100</t>
   </si>
   <si>
     <t>创业板综</t>
-  </si>
-  <si>
-    <t>中证1000</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>上证50</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.05926438116125166</v>
+        <v>-0.004563437645382695</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,7 +482,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>0.04185648746502557</v>
+        <v>-0.009009906618540953</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>0.02733128199747181</v>
+        <v>-0.009774422498919466</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,7 +504,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0.02690193332916802</v>
+        <v>-0.01053240963463309</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,7 +515,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>0.02650232473666714</v>
+        <v>-0.01127355098275096</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>0.008696257209211744</v>
+        <v>-0.01185875069170261</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,7 +537,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-0.003355132185051679</v>
+        <v>-0.01199347315568799</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-0.01048815665412728</v>
+        <v>-0.01276328072286226</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,7 +559,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-0.01341849842679688</v>
+        <v>-0.01288275685825169</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-0.0250942371344296</v>
+        <v>-0.01329973656985994</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-0.03144478286849151</v>
+        <v>-0.01355509206493566</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/板块.xlsx
+++ b/FOF/data/板块.xlsx
@@ -25,70 +25,70 @@
     <t>代码</t>
   </si>
   <si>
+    <t>000016.SH</t>
+  </si>
+  <si>
+    <t>000903.SH</t>
+  </si>
+  <si>
+    <t>000001.SH</t>
+  </si>
+  <si>
+    <t>000300.SH</t>
+  </si>
+  <si>
+    <t>000906.SH</t>
+  </si>
+  <si>
+    <t>881001.WI</t>
+  </si>
+  <si>
+    <t>399101.SZ</t>
+  </si>
+  <si>
+    <t>399106.SZ</t>
+  </si>
+  <si>
+    <t>399102.SZ</t>
+  </si>
+  <si>
+    <t>000905.SH</t>
+  </si>
+  <si>
     <t>000852.SH</t>
   </si>
   <si>
-    <t>399101.SZ</t>
-  </si>
-  <si>
-    <t>000905.SH</t>
-  </si>
-  <si>
-    <t>881001.WI</t>
-  </si>
-  <si>
-    <t>000001.SH</t>
-  </si>
-  <si>
-    <t>399106.SZ</t>
-  </si>
-  <si>
-    <t>000906.SH</t>
-  </si>
-  <si>
-    <t>000300.SH</t>
-  </si>
-  <si>
-    <t>000016.SH</t>
-  </si>
-  <si>
-    <t>000903.SH</t>
-  </si>
-  <si>
-    <t>399102.SZ</t>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>中证500</t>
   </si>
   <si>
     <t>中证1000</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>上证50</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>创业板综</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-0.004563437645382695</v>
+        <v>-0.02761121746030037</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,7 +482,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>-0.009009906618540953</v>
+        <v>-0.03291847194950981</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-0.009774422498919466</v>
+        <v>-0.03581820274192749</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,7 +504,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-0.01053240963463309</v>
+        <v>-0.03734499950769421</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,7 +515,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-0.01127355098275096</v>
+        <v>-0.04278866291224748</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-0.01185875069170261</v>
+        <v>-0.0460705397010629</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,7 +537,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-0.01199347315568799</v>
+        <v>-0.05099162201729301</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-0.01276328072286226</v>
+        <v>-0.05175161825456209</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,7 +559,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-0.01288275685825169</v>
+        <v>-0.05213689194868609</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-0.01329973656985994</v>
+        <v>-0.05843404342166003</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-0.01355509206493566</v>
+        <v>-0.05921791152110145</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/板块.xlsx
+++ b/FOF/data/板块.xlsx
@@ -25,70 +25,70 @@
     <t>代码</t>
   </si>
   <si>
+    <t>000905.SH</t>
+  </si>
+  <si>
+    <t>399102.SZ</t>
+  </si>
+  <si>
+    <t>000906.SH</t>
+  </si>
+  <si>
+    <t>000903.SH</t>
+  </si>
+  <si>
+    <t>000852.SH</t>
+  </si>
+  <si>
+    <t>000001.SH</t>
+  </si>
+  <si>
+    <t>000300.SH</t>
+  </si>
+  <si>
+    <t>881001.WI</t>
+  </si>
+  <si>
     <t>000016.SH</t>
   </si>
   <si>
-    <t>000903.SH</t>
-  </si>
-  <si>
-    <t>000001.SH</t>
-  </si>
-  <si>
-    <t>000300.SH</t>
-  </si>
-  <si>
-    <t>000906.SH</t>
-  </si>
-  <si>
-    <t>881001.WI</t>
-  </si>
-  <si>
     <t>399101.SZ</t>
   </si>
   <si>
     <t>399106.SZ</t>
   </si>
   <si>
-    <t>399102.SZ</t>
-  </si>
-  <si>
-    <t>000905.SH</t>
-  </si>
-  <si>
-    <t>000852.SH</t>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>万得全A</t>
   </si>
   <si>
     <t>上证50</t>
   </si>
   <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
     <t>中小板综</t>
   </si>
   <si>
     <t>深证综指</t>
-  </si>
-  <si>
-    <t>创业板综</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中证1000</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-0.02761121746030037</v>
+        <v>-0.02428177643808505</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,7 +482,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>-0.03291847194950981</v>
+        <v>-0.02671385777726243</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-0.03581820274192749</v>
+        <v>-0.02738168149801534</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,7 +504,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-0.03734499950769421</v>
+        <v>-0.02760538165675619</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,7 +515,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-0.04278866291224748</v>
+        <v>-0.02762703259040256</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-0.0460705397010629</v>
+        <v>-0.02770122088204852</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,7 +537,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-0.05099162201729301</v>
+        <v>-0.02849028386774421</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-0.05175161825456209</v>
+        <v>-0.0285885949498601</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,7 +559,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-0.05213689194868609</v>
+        <v>-0.02898306467337319</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-0.05843404342166003</v>
+        <v>-0.03015904762304966</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-0.05921791152110145</v>
+        <v>-0.03055064260390061</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/板块.xlsx
+++ b/FOF/data/板块.xlsx
@@ -25,70 +25,70 @@
     <t>代码</t>
   </si>
   <si>
+    <t>399102.SZ</t>
+  </si>
+  <si>
+    <t>000001.SH</t>
+  </si>
+  <si>
+    <t>000016.SH</t>
+  </si>
+  <si>
+    <t>881001.WI</t>
+  </si>
+  <si>
+    <t>000300.SH</t>
+  </si>
+  <si>
+    <t>399106.SZ</t>
+  </si>
+  <si>
+    <t>000906.SH</t>
+  </si>
+  <si>
+    <t>000903.SH</t>
+  </si>
+  <si>
+    <t>000852.SH</t>
+  </si>
+  <si>
     <t>000905.SH</t>
   </si>
   <si>
-    <t>399102.SZ</t>
-  </si>
-  <si>
-    <t>000906.SH</t>
-  </si>
-  <si>
-    <t>000903.SH</t>
-  </si>
-  <si>
-    <t>000852.SH</t>
-  </si>
-  <si>
-    <t>000001.SH</t>
-  </si>
-  <si>
-    <t>000300.SH</t>
-  </si>
-  <si>
-    <t>881001.WI</t>
-  </si>
-  <si>
-    <t>000016.SH</t>
-  </si>
-  <si>
     <t>399101.SZ</t>
   </si>
   <si>
-    <t>399106.SZ</t>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>中证1000</t>
   </si>
   <si>
     <t>中证500</t>
   </si>
   <si>
-    <t>创业板综</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>中证1000</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>上证50</t>
-  </si>
-  <si>
     <t>中小板综</t>
-  </si>
-  <si>
-    <t>深证综指</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-0.02428177643808505</v>
+        <v>0.01231208220318702</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,7 +482,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>-0.02671385777726243</v>
+        <v>0.003480043007706879</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-0.02738168149801534</v>
+        <v>0.002329589488279549</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,7 +504,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-0.02760538165675619</v>
+        <v>-0.0008746766825200591</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,7 +515,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-0.02762703259040256</v>
+        <v>-0.001057685217957127</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-0.02770122088204852</v>
+        <v>-0.001243520006225962</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,7 +537,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-0.02849028386774421</v>
+        <v>-0.001670222156146428</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-0.0285885949498601</v>
+        <v>-0.001877847867072568</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,7 +559,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-0.02898306467337319</v>
+        <v>-0.002893100700244178</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-0.03015904762304966</v>
+        <v>-0.00337576159878894</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-0.03055064260390061</v>
+        <v>-0.00355942444283508</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/板块.xlsx
+++ b/FOF/data/板块.xlsx
@@ -28,67 +28,67 @@
     <t>399102.SZ</t>
   </si>
   <si>
+    <t>399106.SZ</t>
+  </si>
+  <si>
+    <t>399101.SZ</t>
+  </si>
+  <si>
+    <t>000852.SH</t>
+  </si>
+  <si>
+    <t>000905.SH</t>
+  </si>
+  <si>
+    <t>881001.WI</t>
+  </si>
+  <si>
     <t>000001.SH</t>
   </si>
   <si>
+    <t>000906.SH</t>
+  </si>
+  <si>
+    <t>000300.SH</t>
+  </si>
+  <si>
+    <t>000903.SH</t>
+  </si>
+  <si>
     <t>000016.SH</t>
   </si>
   <si>
-    <t>881001.WI</t>
-  </si>
-  <si>
-    <t>000300.SH</t>
-  </si>
-  <si>
-    <t>399106.SZ</t>
-  </si>
-  <si>
-    <t>000906.SH</t>
-  </si>
-  <si>
-    <t>000903.SH</t>
-  </si>
-  <si>
-    <t>000852.SH</t>
-  </si>
-  <si>
-    <t>000905.SH</t>
-  </si>
-  <si>
-    <t>399101.SZ</t>
-  </si>
-  <si>
     <t>创业板综</t>
   </si>
   <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
     <t>上证综指</t>
   </si>
   <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
     <t>上证50</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>中证1000</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中小板综</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.01231208220318702</v>
+        <v>-0.007720423552011635</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,7 +482,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>0.003480043007706879</v>
+        <v>-0.01025510800551754</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>0.002329589488279549</v>
+        <v>-0.01151955170373964</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,7 +504,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-0.0008746766825200591</v>
+        <v>-0.01198122630573717</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,7 +515,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-0.001057685217957127</v>
+        <v>-0.01290241342930942</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-0.001243520006225962</v>
+        <v>-0.0132278238746617</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,7 +537,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-0.001670222156146428</v>
+        <v>-0.01628414011647006</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-0.001877847867072568</v>
+        <v>-0.01975973307350398</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,7 +559,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-0.002893100700244178</v>
+        <v>-0.02217891037750674</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-0.00337576159878894</v>
+        <v>-0.02658375901059562</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-0.00355942444283508</v>
+        <v>-0.0289153791776473</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/板块.xlsx
+++ b/FOF/data/板块.xlsx
@@ -34,30 +34,30 @@
     <t>399101.SZ</t>
   </si>
   <si>
+    <t>000905.SH</t>
+  </si>
+  <si>
+    <t>881001.WI</t>
+  </si>
+  <si>
+    <t>000906.SH</t>
+  </si>
+  <si>
+    <t>000300.SH</t>
+  </si>
+  <si>
     <t>000852.SH</t>
   </si>
   <si>
-    <t>000905.SH</t>
-  </si>
-  <si>
-    <t>881001.WI</t>
+    <t>000903.SH</t>
+  </si>
+  <si>
+    <t>000016.SH</t>
   </si>
   <si>
     <t>000001.SH</t>
   </si>
   <si>
-    <t>000906.SH</t>
-  </si>
-  <si>
-    <t>000300.SH</t>
-  </si>
-  <si>
-    <t>000903.SH</t>
-  </si>
-  <si>
-    <t>000016.SH</t>
-  </si>
-  <si>
     <t>创业板综</t>
   </si>
   <si>
@@ -67,28 +67,28 @@
     <t>中小板综</t>
   </si>
   <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
     <t>中证1000</t>
   </si>
   <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>万得全A</t>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>上证50</t>
   </si>
   <si>
     <t>上证综指</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>上证50</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-0.007720423552011635</v>
+        <v>0.04878351062997566</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,7 +482,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>-0.01025510800551754</v>
+        <v>0.04457686055119092</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-0.01151955170373964</v>
+        <v>0.04407096702431978</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,7 +504,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-0.01198122630573717</v>
+        <v>0.04153911819644684</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,7 +515,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-0.01290241342930942</v>
+        <v>0.03973367838417552</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-0.0132278238746617</v>
+        <v>0.03881525577623246</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,7 +537,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-0.01628414011647006</v>
+        <v>0.03790857314058727</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-0.01975973307350398</v>
+        <v>0.0348129893905571</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,7 +559,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-0.02217891037750674</v>
+        <v>0.03253415115504588</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-0.02658375901059562</v>
+        <v>0.03090263658335868</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-0.0289153791776473</v>
+        <v>0.03055996252222926</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/板块.xlsx
+++ b/FOF/data/板块.xlsx
@@ -25,9 +25,27 @@
     <t>代码</t>
   </si>
   <si>
+    <t>000016.SH</t>
+  </si>
+  <si>
+    <t>000903.SH</t>
+  </si>
+  <si>
+    <t>000300.SH</t>
+  </si>
+  <si>
+    <t>000906.SH</t>
+  </si>
+  <si>
+    <t>000001.SH</t>
+  </si>
+  <si>
     <t>399102.SZ</t>
   </si>
   <si>
+    <t>881001.WI</t>
+  </si>
+  <si>
     <t>399106.SZ</t>
   </si>
   <si>
@@ -37,30 +55,30 @@
     <t>000905.SH</t>
   </si>
   <si>
-    <t>881001.WI</t>
-  </si>
-  <si>
-    <t>000906.SH</t>
-  </si>
-  <si>
-    <t>000300.SH</t>
-  </si>
-  <si>
     <t>000852.SH</t>
   </si>
   <si>
-    <t>000903.SH</t>
-  </si>
-  <si>
-    <t>000016.SH</t>
-  </si>
-  <si>
-    <t>000001.SH</t>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>上证综指</t>
   </si>
   <si>
     <t>创业板综</t>
   </si>
   <si>
+    <t>万得全A</t>
+  </si>
+  <si>
     <t>深证综指</t>
   </si>
   <si>
@@ -70,25 +88,7 @@
     <t>中证500</t>
   </si>
   <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
     <t>中证1000</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>上证50</t>
-  </si>
-  <si>
-    <t>上证综指</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.04878351062997566</v>
+        <v>0.0008956559398116681</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,7 +482,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>0.04457686055119092</v>
+        <v>-0.003494249240433733</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>0.04407096702431978</v>
+        <v>-0.01128470190835162</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,7 +504,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0.04153911819644684</v>
+        <v>-0.01681662766552194</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,7 +515,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>0.03973367838417552</v>
+        <v>-0.02165293234813204</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>0.03881525577623246</v>
+        <v>-0.02324180038473012</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,7 +537,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>0.03790857314058727</v>
+        <v>-0.02334808473247385</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.0348129893905571</v>
+        <v>-0.02510381788467764</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,7 +559,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0.03253415115504588</v>
+        <v>-0.02920963486247874</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.03090263658335868</v>
+        <v>-0.0350744885157912</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.03055996252222926</v>
+        <v>-0.04210938531155073</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/板块.xlsx
+++ b/FOF/data/板块.xlsx
@@ -25,70 +25,70 @@
     <t>代码</t>
   </si>
   <si>
+    <t>000852.SH</t>
+  </si>
+  <si>
+    <t>881001.WI</t>
+  </si>
+  <si>
+    <t>000905.SH</t>
+  </si>
+  <si>
     <t>000016.SH</t>
   </si>
   <si>
+    <t>399106.SZ</t>
+  </si>
+  <si>
+    <t>000906.SH</t>
+  </si>
+  <si>
     <t>000903.SH</t>
   </si>
   <si>
+    <t>000001.SH</t>
+  </si>
+  <si>
     <t>000300.SH</t>
   </si>
   <si>
-    <t>000906.SH</t>
-  </si>
-  <si>
-    <t>000001.SH</t>
+    <t>399101.SZ</t>
   </si>
   <si>
     <t>399102.SZ</t>
   </si>
   <si>
-    <t>881001.WI</t>
-  </si>
-  <si>
-    <t>399106.SZ</t>
-  </si>
-  <si>
-    <t>399101.SZ</t>
-  </si>
-  <si>
-    <t>000905.SH</t>
-  </si>
-  <si>
-    <t>000852.SH</t>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中证500</t>
   </si>
   <si>
     <t>上证50</t>
   </si>
   <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
     <t>中证100</t>
   </si>
   <si>
+    <t>上证综指</t>
+  </si>
+  <si>
     <t>沪深300</t>
   </si>
   <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>上证综指</t>
+    <t>中小板综</t>
   </si>
   <si>
     <t>创业板综</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中证1000</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.0008956559398116681</v>
+        <v>0.01532034658594839</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,7 +482,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>-0.003494249240433733</v>
+        <v>0.01152197351193607</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-0.01128470190835162</v>
+        <v>0.01027877324388959</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,7 +504,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-0.01681662766552194</v>
+        <v>0.009396936067072481</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,7 +515,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-0.02165293234813204</v>
+        <v>0.009164828411267534</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-0.02324180038473012</v>
+        <v>0.008838486231494969</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,7 +537,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-0.02334808473247385</v>
+        <v>0.008533636827423363</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-0.02510381788467764</v>
+        <v>0.008409331551168631</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,7 +559,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-0.02920963486247874</v>
+        <v>0.008377084630393883</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-0.0350744885157912</v>
+        <v>0.007158126914988294</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-0.04210938531155073</v>
+        <v>0.007142639592503164</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/板块.xlsx
+++ b/FOF/data/板块.xlsx
@@ -25,70 +25,70 @@
     <t>代码</t>
   </si>
   <si>
+    <t>399101.SZ</t>
+  </si>
+  <si>
     <t>000852.SH</t>
   </si>
   <si>
+    <t>399106.SZ</t>
+  </si>
+  <si>
+    <t>000905.SH</t>
+  </si>
+  <si>
     <t>881001.WI</t>
   </si>
   <si>
-    <t>000905.SH</t>
+    <t>399102.SZ</t>
+  </si>
+  <si>
+    <t>000906.SH</t>
+  </si>
+  <si>
+    <t>000300.SH</t>
+  </si>
+  <si>
+    <t>000903.SH</t>
   </si>
   <si>
     <t>000016.SH</t>
   </si>
   <si>
-    <t>399106.SZ</t>
-  </si>
-  <si>
-    <t>000906.SH</t>
-  </si>
-  <si>
-    <t>000903.SH</t>
-  </si>
-  <si>
     <t>000001.SH</t>
   </si>
   <si>
-    <t>000300.SH</t>
-  </si>
-  <si>
-    <t>399101.SZ</t>
-  </si>
-  <si>
-    <t>399102.SZ</t>
+    <t>中小板综</t>
   </si>
   <si>
     <t>中证1000</t>
   </si>
   <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
     <t>万得全A</t>
   </si>
   <si>
-    <t>中证500</t>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证100</t>
   </si>
   <si>
     <t>上证50</t>
   </si>
   <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
     <t>上证综指</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>创业板综</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.01532034658594839</v>
+        <v>0.03208399390419481</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,7 +482,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>0.01152197351193607</v>
+        <v>0.02750565470283606</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>0.01027877324388959</v>
+        <v>0.0264701068848916</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,7 +504,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0.009396936067072481</v>
+        <v>0.02469724489326253</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,7 +515,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>0.009164828411267534</v>
+        <v>0.02318882853218862</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>0.008838486231494969</v>
+        <v>0.02295622876580872</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,7 +537,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>0.008533636827423363</v>
+        <v>0.02068901939976375</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.008409331551168631</v>
+        <v>0.01940268208092033</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,7 +559,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0.008377084630393883</v>
+        <v>0.0187926616460028</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.007158126914988294</v>
+        <v>0.01721735836477167</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.007142639592503164</v>
+        <v>0.01549309820689637</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/板块.xlsx
+++ b/FOF/data/板块.xlsx
@@ -25,70 +25,70 @@
     <t>代码</t>
   </si>
   <si>
+    <t>000016.SH</t>
+  </si>
+  <si>
+    <t>000903.SH</t>
+  </si>
+  <si>
+    <t>000001.SH</t>
+  </si>
+  <si>
+    <t>399102.SZ</t>
+  </si>
+  <si>
+    <t>000300.SH</t>
+  </si>
+  <si>
+    <t>000906.SH</t>
+  </si>
+  <si>
+    <t>881001.WI</t>
+  </si>
+  <si>
+    <t>000905.SH</t>
+  </si>
+  <si>
+    <t>000852.SH</t>
+  </si>
+  <si>
+    <t>399106.SZ</t>
+  </si>
+  <si>
     <t>399101.SZ</t>
   </si>
   <si>
-    <t>000852.SH</t>
-  </si>
-  <si>
-    <t>399106.SZ</t>
-  </si>
-  <si>
-    <t>000905.SH</t>
-  </si>
-  <si>
-    <t>881001.WI</t>
-  </si>
-  <si>
-    <t>399102.SZ</t>
-  </si>
-  <si>
-    <t>000906.SH</t>
-  </si>
-  <si>
-    <t>000300.SH</t>
-  </si>
-  <si>
-    <t>000903.SH</t>
-  </si>
-  <si>
-    <t>000016.SH</t>
-  </si>
-  <si>
-    <t>000001.SH</t>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>深证综指</t>
   </si>
   <si>
     <t>中小板综</t>
-  </si>
-  <si>
-    <t>中证1000</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>创业板综</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>上证50</t>
-  </si>
-  <si>
-    <t>上证综指</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.03208399390419481</v>
+        <v>0.07487189837143737</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,7 +482,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>0.02750565470283606</v>
+        <v>0.07005723285897392</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>0.0264701068848916</v>
+        <v>0.06767599560976945</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,7 +504,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0.02469724489326253</v>
+        <v>0.06665255190483088</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,7 +515,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>0.02318882853218862</v>
+        <v>0.06522397458130791</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>0.02295622876580872</v>
+        <v>0.06413948685864557</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,7 +537,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>0.02068901939976375</v>
+        <v>0.06317630775043925</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.01940268208092033</v>
+        <v>0.06068855621034452</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,7 +559,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0.0187926616460028</v>
+        <v>0.06025424363295939</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.01721735836477167</v>
+        <v>0.05929419410085313</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.01549309820689637</v>
+        <v>0.04775829101171736</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/板块.xlsx
+++ b/FOF/data/板块.xlsx
@@ -25,70 +25,70 @@
     <t>代码</t>
   </si>
   <si>
+    <t>399102.SZ</t>
+  </si>
+  <si>
+    <t>000852.SH</t>
+  </si>
+  <si>
+    <t>399106.SZ</t>
+  </si>
+  <si>
+    <t>399101.SZ</t>
+  </si>
+  <si>
+    <t>881001.WI</t>
+  </si>
+  <si>
+    <t>000001.SH</t>
+  </si>
+  <si>
+    <t>000905.SH</t>
+  </si>
+  <si>
+    <t>000906.SH</t>
+  </si>
+  <si>
+    <t>000300.SH</t>
+  </si>
+  <si>
     <t>000016.SH</t>
   </si>
   <si>
     <t>000903.SH</t>
   </si>
   <si>
-    <t>000001.SH</t>
-  </si>
-  <si>
-    <t>399102.SZ</t>
-  </si>
-  <si>
-    <t>000300.SH</t>
-  </si>
-  <si>
-    <t>000906.SH</t>
-  </si>
-  <si>
-    <t>881001.WI</t>
-  </si>
-  <si>
-    <t>000905.SH</t>
-  </si>
-  <si>
-    <t>000852.SH</t>
-  </si>
-  <si>
-    <t>399106.SZ</t>
-  </si>
-  <si>
-    <t>399101.SZ</t>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>沪深300</t>
   </si>
   <si>
     <t>上证50</t>
   </si>
   <si>
     <t>中证100</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>创业板综</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中证1000</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中小板综</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.07487189837143737</v>
+        <v>0.03116593024126169</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,7 +482,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>0.07005723285897392</v>
+        <v>0.02566419921342455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>0.06767599560976945</v>
+        <v>0.02394914107925472</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,7 +504,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0.06665255190483088</v>
+        <v>0.02339573832105146</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,7 +515,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>0.06522397458130791</v>
+        <v>0.01880694367855917</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>0.06413948685864557</v>
+        <v>0.01601871128541821</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,7 +537,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>0.06317630775043925</v>
+        <v>0.01450779038428873</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.06068855621034452</v>
+        <v>0.01105892451302948</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,7 +559,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0.06025424363295939</v>
+        <v>0.009982264739285762</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.05929419410085313</v>
+        <v>0.009963156524224637</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.04775829101171736</v>
+        <v>0.007077605160519695</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/板块.xlsx
+++ b/FOF/data/板块.xlsx
@@ -25,70 +25,70 @@
     <t>代码</t>
   </si>
   <si>
+    <t>000016.SH</t>
+  </si>
+  <si>
+    <t>000903.SH</t>
+  </si>
+  <si>
+    <t>000300.SH</t>
+  </si>
+  <si>
+    <t>000001.SH</t>
+  </si>
+  <si>
+    <t>000906.SH</t>
+  </si>
+  <si>
+    <t>881001.WI</t>
+  </si>
+  <si>
+    <t>399106.SZ</t>
+  </si>
+  <si>
+    <t>000905.SH</t>
+  </si>
+  <si>
+    <t>399101.SZ</t>
+  </si>
+  <si>
     <t>399102.SZ</t>
   </si>
   <si>
     <t>000852.SH</t>
   </si>
   <si>
-    <t>399106.SZ</t>
-  </si>
-  <si>
-    <t>399101.SZ</t>
-  </si>
-  <si>
-    <t>881001.WI</t>
-  </si>
-  <si>
-    <t>000001.SH</t>
-  </si>
-  <si>
-    <t>000905.SH</t>
-  </si>
-  <si>
-    <t>000906.SH</t>
-  </si>
-  <si>
-    <t>000300.SH</t>
-  </si>
-  <si>
-    <t>000016.SH</t>
-  </si>
-  <si>
-    <t>000903.SH</t>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>中小板综</t>
   </si>
   <si>
     <t>创业板综</t>
   </si>
   <si>
     <t>中证1000</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>上证50</t>
-  </si>
-  <si>
-    <t>中证100</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.03116593024126169</v>
+        <v>-0.008129072840909246</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,7 +482,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>0.02566419921342455</v>
+        <v>-0.01078297614598223</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>0.02394914107925472</v>
+        <v>-0.01793809354168296</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,7 +504,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0.02339573832105146</v>
+        <v>-0.02445868678679375</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,7 +515,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>0.01880694367855917</v>
+        <v>-0.02498757126729811</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>0.01601871128541821</v>
+        <v>-0.03370718101943204</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,7 +537,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>0.01450779038428873</v>
+        <v>-0.04449102697039908</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.01105892451302948</v>
+        <v>-0.04747884288692572</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,7 +559,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0.009982264739285762</v>
+        <v>-0.04914031249707529</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.009963156524224637</v>
+        <v>-0.05371333691752223</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.007077605160519695</v>
+        <v>-0.05688659714846001</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/板块.xlsx
+++ b/FOF/data/板块.xlsx
@@ -25,70 +25,70 @@
     <t>代码</t>
   </si>
   <si>
+    <t>399101.SZ</t>
+  </si>
+  <si>
+    <t>399102.SZ</t>
+  </si>
+  <si>
+    <t>399106.SZ</t>
+  </si>
+  <si>
+    <t>000852.SH</t>
+  </si>
+  <si>
+    <t>000905.SH</t>
+  </si>
+  <si>
+    <t>881001.WI</t>
+  </si>
+  <si>
+    <t>000001.SH</t>
+  </si>
+  <si>
+    <t>000906.SH</t>
+  </si>
+  <si>
+    <t>000300.SH</t>
+  </si>
+  <si>
+    <t>000903.SH</t>
+  </si>
+  <si>
     <t>000016.SH</t>
   </si>
   <si>
-    <t>000903.SH</t>
-  </si>
-  <si>
-    <t>000300.SH</t>
-  </si>
-  <si>
-    <t>000001.SH</t>
-  </si>
-  <si>
-    <t>000906.SH</t>
-  </si>
-  <si>
-    <t>881001.WI</t>
-  </si>
-  <si>
-    <t>399106.SZ</t>
-  </si>
-  <si>
-    <t>000905.SH</t>
-  </si>
-  <si>
-    <t>399101.SZ</t>
-  </si>
-  <si>
-    <t>399102.SZ</t>
-  </si>
-  <si>
-    <t>000852.SH</t>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证100</t>
   </si>
   <si>
     <t>上证50</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>创业板综</t>
-  </si>
-  <si>
-    <t>中证1000</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-0.008129072840909246</v>
+        <v>-0.00164762099610305</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,7 +482,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>-0.01078297614598223</v>
+        <v>-0.002674564794168721</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-0.01793809354168296</v>
+        <v>-0.003499700457331834</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,7 +504,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-0.02445868678679375</v>
+        <v>-0.006516093485022023</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,7 +515,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-0.02498757126729811</v>
+        <v>-0.007272463351518654</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-0.03370718101943204</v>
+        <v>-0.00782961817997363</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,7 +537,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-0.04449102697039908</v>
+        <v>-0.0081776566918218</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-0.04747884288692572</v>
+        <v>-0.008774540821101962</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,7 +559,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-0.04914031249707529</v>
+        <v>-0.009246044166118073</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-0.05371333691752223</v>
+        <v>-0.01198453041717351</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-0.05688659714846001</v>
+        <v>-0.01204402629890877</v>
       </c>
     </row>
   </sheetData>
